--- a/IoTBlockchain.xlsx
+++ b/IoTBlockchain.xlsx
@@ -16,11 +16,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="30">
   <si>
     <t>No. of Node</t>
   </si>
   <si>
+    <t>consensus Algorithm</t>
+  </si>
+  <si>
     <t>No. of Transactions</t>
   </si>
   <si>
@@ -39,6 +42,24 @@
     <t>Block Gas Limit</t>
   </si>
   <si>
+    <t>Block Interval</t>
+  </si>
+  <si>
+    <t>raft</t>
+  </si>
+  <si>
+    <t>No. of light Node</t>
+  </si>
+  <si>
+    <t>No. of Miner Node</t>
+  </si>
+  <si>
+    <t>Total No. of Blocks</t>
+  </si>
+  <si>
+    <t>Total No of Transactions</t>
+  </si>
+  <si>
     <t>Block Propagation Time</t>
   </si>
   <si>
@@ -82,9 +103,6 @@
   </si>
   <si>
     <t>Transaction Used Gas</t>
-  </si>
-  <si>
-    <t>Tx ID</t>
   </si>
   <si>
     <t>Transaction Latency</t>
@@ -177,23 +195,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="B2:M3"/>
+  <dimension ref="B2:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="2" max="2" width="12.15625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="19.5078125" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="21.76953125" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="26.4921875" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="26.12890625" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="20.36328125" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="15.64453125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="23.51953125" customWidth="true" bestFit="true"/>
-    <col min="10" max="10" width="28.42578125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="24.15625" customWidth="true" bestFit="true"/>
-    <col min="12" max="12" width="29.15234375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="21.14453125" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="19.5078125" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="21.76953125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="26.4921875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="26.12890625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="20.36328125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="15.64453125" customWidth="true" bestFit="true"/>
+    <col min="10" max="10" width="14.00390625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="2">
@@ -224,34 +240,34 @@
       <c r="J2" t="s" s="1">
         <v>8</v>
       </c>
-      <c r="K2" t="s" s="1">
-        <v>9</v>
-      </c>
-      <c r="L2" t="s" s="1">
-        <v>10</v>
-      </c>
     </row>
     <row r="3">
       <c r="B3" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="C3" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="n">
         <v>9.0</v>
       </c>
-      <c r="D3" t="n">
+      <c r="E3" t="n">
         <v>100.0</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>1000.0</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
         <v>100.0</v>
       </c>
-      <c r="G3" t="n">
+      <c r="H3" t="n">
+        <v>100000.0</v>
+      </c>
+      <c r="I3" t="n">
         <v>10000.0</v>
       </c>
-      <c r="H3" t="n">
-        <v>10000.0</v>
+      <c r="J3" t="n">
+        <v>7.0</v>
       </c>
     </row>
   </sheetData>
@@ -261,58 +277,46 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="B2:M3"/>
+  <dimension ref="B2:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="2" max="2" width="12.15625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="19.5078125" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="21.76953125" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="26.4921875" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="26.12890625" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="20.36328125" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="15.64453125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="23.51953125" customWidth="true" bestFit="true"/>
-    <col min="10" max="10" width="28.42578125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="24.15625" customWidth="true" bestFit="true"/>
-    <col min="12" max="12" width="29.15234375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="17.109375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="18.1328125" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="18.83984375" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="24.51171875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="23.51953125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="28.42578125" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="24.15625" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="29.15234375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="2">
       <c r="B2" t="s" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s" s="2">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D2" t="s" s="2">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="E2" t="s" s="2">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="F2" t="s" s="2">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>7</v>
-      </c>
-      <c r="J2" t="s" s="2">
-        <v>8</v>
-      </c>
-      <c r="K2" t="s" s="2">
-        <v>9</v>
-      </c>
-      <c r="L2" t="s" s="2">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3">
@@ -320,22 +324,25 @@
         <v>4.0</v>
       </c>
       <c r="C3" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D3" t="n">
         <v>9.0</v>
       </c>
-      <c r="D3" t="n">
-        <v>100.0</v>
-      </c>
       <c r="E3" t="n">
-        <v>1000.0</v>
+        <v>9.0</v>
       </c>
       <c r="F3" t="n">
-        <v>100.0</v>
+        <v>3.869573770491232</v>
       </c>
       <c r="G3" t="n">
-        <v>10000.0</v>
+        <v>0.1864668180160885</v>
       </c>
       <c r="H3" t="n">
-        <v>10000.0</v>
+        <v>1.1039338650175385</v>
+      </c>
+      <c r="I3" t="n">
+        <v>8.15266229726272</v>
       </c>
     </row>
   </sheetData>
@@ -345,7 +352,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="B2:I42"/>
+  <dimension ref="B2:I38"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -362,25 +369,25 @@
   <sheetData>
     <row r="2">
       <c r="B2" t="s" s="3">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C2" t="s" s="3">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D2" t="s" s="3">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E2" t="s" s="3">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F2" t="s" s="3">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="G2" t="s" s="3">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="H2" t="s" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -400,7 +407,7 @@
         <v>0.0</v>
       </c>
       <c r="G3" t="n">
-        <v>10000.0</v>
+        <v>100000.0</v>
       </c>
       <c r="H3" t="n">
         <v>0.0</v>
@@ -411,7 +418,7 @@
         <v>1.0</v>
       </c>
       <c r="C4" t="n">
-        <v>1.7593801336E10</v>
+        <v>7.2528418098E10</v>
       </c>
       <c r="D4" t="n">
         <v>0.0</v>
@@ -420,10 +427,10 @@
         <v>1.0</v>
       </c>
       <c r="F4" t="n">
-        <v>0.6100121914074076</v>
+        <v>0.8447988478360704</v>
       </c>
       <c r="G4" t="n">
-        <v>805.8586994969074</v>
+        <v>989.7896363580809</v>
       </c>
       <c r="H4" t="n">
         <v>1.0</v>
@@ -434,19 +441,19 @@
         <v>1.0</v>
       </c>
       <c r="C5" t="n">
-        <v>5.9272176871E10</v>
+        <v>7.6883219571E10</v>
       </c>
       <c r="D5" t="n">
-        <v>1.7593801336E10</v>
+        <v>7.2528418098E10</v>
       </c>
       <c r="E5" t="n">
         <v>2.0</v>
       </c>
       <c r="F5" t="n">
-        <v>1.541167988346903</v>
+        <v>1.918923429123811</v>
       </c>
       <c r="G5" t="n">
-        <v>211.72591739890248</v>
+        <v>499.2421419245529</v>
       </c>
       <c r="H5" t="n">
         <v>1.0</v>
@@ -457,19 +464,19 @@
         <v>1.0</v>
       </c>
       <c r="C6" t="n">
-        <v>8.3381626084E10</v>
+        <v>1.791078769E10</v>
       </c>
       <c r="D6" t="n">
-        <v>5.9272176871E10</v>
+        <v>7.6883219571E10</v>
       </c>
       <c r="E6" t="n">
         <v>3.0</v>
       </c>
       <c r="F6" t="n">
-        <v>2.9273163886418403</v>
+        <v>2.956888862622211</v>
       </c>
       <c r="G6" t="n">
-        <v>542.415604906807</v>
+        <v>702.0852066356879</v>
       </c>
       <c r="H6" t="n">
         <v>1.0</v>
@@ -480,19 +487,19 @@
         <v>1.0</v>
       </c>
       <c r="C7" t="n">
-        <v>3.1310500218E10</v>
+        <v>6.792028592E10</v>
       </c>
       <c r="D7" t="n">
-        <v>8.3381626084E10</v>
+        <v>1.791078769E10</v>
       </c>
       <c r="E7" t="n">
         <v>4.0</v>
       </c>
       <c r="F7" t="n">
-        <v>3.124552553837044</v>
+        <v>3.6682877223153056</v>
       </c>
       <c r="G7" t="n">
-        <v>634.3706705805198</v>
+        <v>434.9548108710895</v>
       </c>
       <c r="H7" t="n">
         <v>1.0</v>
@@ -503,19 +510,19 @@
         <v>1.0</v>
       </c>
       <c r="C8" t="n">
-        <v>4.9876099276E10</v>
+        <v>7.2360754118E10</v>
       </c>
       <c r="D8" t="n">
-        <v>3.1310500218E10</v>
+        <v>6.792028592E10</v>
       </c>
       <c r="E8" t="n">
         <v>5.0</v>
       </c>
       <c r="F8" t="n">
-        <v>4.607477632766094</v>
+        <v>4.479564935234301</v>
       </c>
       <c r="G8" t="n">
-        <v>341.86500695178023</v>
+        <v>257.2132560685849</v>
       </c>
       <c r="H8" t="n">
         <v>1.0</v>
@@ -526,19 +533,19 @@
         <v>1.0</v>
       </c>
       <c r="C9" t="n">
-        <v>5.5938368836E10</v>
+        <v>7.973162759E9</v>
       </c>
       <c r="D9" t="n">
-        <v>4.9876099276E10</v>
+        <v>7.2360754118E10</v>
       </c>
       <c r="E9" t="n">
         <v>6.0</v>
       </c>
       <c r="F9" t="n">
-        <v>5.521846832873693</v>
+        <v>5.352212605777627</v>
       </c>
       <c r="G9" t="n">
-        <v>775.989596411402</v>
+        <v>217.38736118625474</v>
       </c>
       <c r="H9" t="n">
         <v>1.0</v>
@@ -549,22 +556,22 @@
         <v>1.0</v>
       </c>
       <c r="C10" t="n">
-        <v>1.0653766553E10</v>
+        <v>5.1121484728E10</v>
       </c>
       <c r="D10" t="n">
-        <v>5.5938368836E10</v>
+        <v>7.973162759E9</v>
       </c>
       <c r="E10" t="n">
         <v>7.0</v>
       </c>
       <c r="F10" t="n">
-        <v>6.579327048826158</v>
+        <v>7.452825234249042</v>
       </c>
       <c r="G10" t="n">
-        <v>937.4620073430053</v>
+        <v>1526.649145176441</v>
       </c>
       <c r="H10" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="11">
@@ -572,19 +579,19 @@
         <v>1.0</v>
       </c>
       <c r="C11" t="n">
-        <v>4.7084839903E10</v>
+        <v>3.129787598E10</v>
       </c>
       <c r="D11" t="n">
-        <v>1.0653766553E10</v>
+        <v>5.1121484728E10</v>
       </c>
       <c r="E11" t="n">
         <v>8.0</v>
       </c>
       <c r="F11" t="n">
-        <v>7.6715237392187525</v>
+        <v>8.15266229726272</v>
       </c>
       <c r="G11" t="n">
-        <v>883.7883245371893</v>
+        <v>438.9642363314328</v>
       </c>
       <c r="H11" t="n">
         <v>1.0</v>
@@ -592,25 +599,25 @@
     </row>
     <row r="12">
       <c r="B12" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="C12" t="n">
-        <v>4.2443855545E10</v>
+        <v>0.0</v>
       </c>
       <c r="D12" t="n">
-        <v>4.7084839903E10</v>
+        <v>-1.0</v>
       </c>
       <c r="E12" t="n">
-        <v>9.0</v>
+        <v>0.0</v>
       </c>
       <c r="F12" t="n">
-        <v>8.911845577200292</v>
+        <v>0.0</v>
       </c>
       <c r="G12" t="n">
-        <v>609.9253407689052</v>
+        <v>100000.0</v>
       </c>
       <c r="H12" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="13">
@@ -618,22 +625,22 @@
         <v>2.0</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0</v>
+        <v>7.2528418098E10</v>
       </c>
       <c r="D13" t="n">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
       <c r="E13" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0</v>
+        <v>0.8447988478360704</v>
       </c>
       <c r="G13" t="n">
-        <v>10000.0</v>
+        <v>989.7896363580809</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="14">
@@ -641,19 +648,19 @@
         <v>2.0</v>
       </c>
       <c r="C14" t="n">
-        <v>1.7593801336E10</v>
+        <v>7.6883219571E10</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0</v>
+        <v>7.2528418098E10</v>
       </c>
       <c r="E14" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="F14" t="n">
-        <v>0.6100121914074076</v>
+        <v>1.918923429123811</v>
       </c>
       <c r="G14" t="n">
-        <v>805.8586994969074</v>
+        <v>499.2421419245529</v>
       </c>
       <c r="H14" t="n">
         <v>1.0</v>
@@ -664,19 +671,19 @@
         <v>2.0</v>
       </c>
       <c r="C15" t="n">
-        <v>5.9272176871E10</v>
+        <v>1.791078769E10</v>
       </c>
       <c r="D15" t="n">
-        <v>1.7593801336E10</v>
+        <v>7.6883219571E10</v>
       </c>
       <c r="E15" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="F15" t="n">
-        <v>1.541167988346903</v>
+        <v>2.956888862622211</v>
       </c>
       <c r="G15" t="n">
-        <v>211.72591739890248</v>
+        <v>702.0852066356879</v>
       </c>
       <c r="H15" t="n">
         <v>1.0</v>
@@ -687,19 +694,19 @@
         <v>2.0</v>
       </c>
       <c r="C16" t="n">
-        <v>8.3381626084E10</v>
+        <v>6.792028592E10</v>
       </c>
       <c r="D16" t="n">
-        <v>5.9272176871E10</v>
+        <v>1.791078769E10</v>
       </c>
       <c r="E16" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="F16" t="n">
-        <v>2.9273163886418403</v>
+        <v>3.6682877223153056</v>
       </c>
       <c r="G16" t="n">
-        <v>542.415604906807</v>
+        <v>434.9548108710895</v>
       </c>
       <c r="H16" t="n">
         <v>1.0</v>
@@ -710,19 +717,19 @@
         <v>2.0</v>
       </c>
       <c r="C17" t="n">
-        <v>3.1310500218E10</v>
+        <v>7.2360754118E10</v>
       </c>
       <c r="D17" t="n">
-        <v>8.3381626084E10</v>
+        <v>6.792028592E10</v>
       </c>
       <c r="E17" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="F17" t="n">
-        <v>3.124552553837044</v>
+        <v>4.479564935234301</v>
       </c>
       <c r="G17" t="n">
-        <v>634.3706705805198</v>
+        <v>257.2132560685849</v>
       </c>
       <c r="H17" t="n">
         <v>1.0</v>
@@ -733,19 +740,19 @@
         <v>2.0</v>
       </c>
       <c r="C18" t="n">
-        <v>4.9876099276E10</v>
+        <v>7.973162759E9</v>
       </c>
       <c r="D18" t="n">
-        <v>3.1310500218E10</v>
+        <v>7.2360754118E10</v>
       </c>
       <c r="E18" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="F18" t="n">
-        <v>4.607477632766094</v>
+        <v>5.352212605777627</v>
       </c>
       <c r="G18" t="n">
-        <v>341.86500695178023</v>
+        <v>217.38736118625474</v>
       </c>
       <c r="H18" t="n">
         <v>1.0</v>
@@ -756,22 +763,22 @@
         <v>2.0</v>
       </c>
       <c r="C19" t="n">
-        <v>5.5938368836E10</v>
+        <v>5.1121484728E10</v>
       </c>
       <c r="D19" t="n">
-        <v>4.9876099276E10</v>
+        <v>7.973162759E9</v>
       </c>
       <c r="E19" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="F19" t="n">
-        <v>5.521846832873693</v>
+        <v>7.452825234249042</v>
       </c>
       <c r="G19" t="n">
-        <v>775.989596411402</v>
+        <v>1526.649145176441</v>
       </c>
       <c r="H19" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="20">
@@ -779,19 +786,19 @@
         <v>2.0</v>
       </c>
       <c r="C20" t="n">
-        <v>1.0653766553E10</v>
+        <v>3.129787598E10</v>
       </c>
       <c r="D20" t="n">
-        <v>5.5938368836E10</v>
+        <v>5.1121484728E10</v>
       </c>
       <c r="E20" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="F20" t="n">
-        <v>6.579327048826158</v>
+        <v>8.15266229726272</v>
       </c>
       <c r="G20" t="n">
-        <v>937.4620073430053</v>
+        <v>438.9642363314328</v>
       </c>
       <c r="H20" t="n">
         <v>1.0</v>
@@ -799,45 +806,45 @@
     </row>
     <row r="21">
       <c r="B21" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="C21" t="n">
-        <v>4.7084839903E10</v>
+        <v>0.0</v>
       </c>
       <c r="D21" t="n">
-        <v>1.0653766553E10</v>
+        <v>-1.0</v>
       </c>
       <c r="E21" t="n">
-        <v>8.0</v>
+        <v>0.0</v>
       </c>
       <c r="F21" t="n">
-        <v>7.6715237392187525</v>
+        <v>0.0</v>
       </c>
       <c r="G21" t="n">
-        <v>883.7883245371893</v>
+        <v>100000.0</v>
       </c>
       <c r="H21" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="22">
       <c r="B22" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="C22" t="n">
-        <v>4.2443855545E10</v>
+        <v>7.2528418098E10</v>
       </c>
       <c r="D22" t="n">
-        <v>4.7084839903E10</v>
+        <v>0.0</v>
       </c>
       <c r="E22" t="n">
-        <v>9.0</v>
+        <v>1.0</v>
       </c>
       <c r="F22" t="n">
-        <v>8.911845577200292</v>
+        <v>0.8447988478360704</v>
       </c>
       <c r="G22" t="n">
-        <v>609.9253407689052</v>
+        <v>989.7896363580809</v>
       </c>
       <c r="H22" t="n">
         <v>1.0</v>
@@ -848,22 +855,22 @@
         <v>3.0</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0</v>
+        <v>7.6883219571E10</v>
       </c>
       <c r="D23" t="n">
-        <v>-1.0</v>
+        <v>7.2528418098E10</v>
       </c>
       <c r="E23" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="F23" t="n">
-        <v>0.0</v>
+        <v>1.918923429123811</v>
       </c>
       <c r="G23" t="n">
-        <v>10000.0</v>
+        <v>499.2421419245529</v>
       </c>
       <c r="H23" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="24">
@@ -871,19 +878,19 @@
         <v>3.0</v>
       </c>
       <c r="C24" t="n">
-        <v>1.7593801336E10</v>
+        <v>1.791078769E10</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0</v>
+        <v>7.6883219571E10</v>
       </c>
       <c r="E24" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="F24" t="n">
-        <v>0.6100121914074076</v>
+        <v>2.956888862622211</v>
       </c>
       <c r="G24" t="n">
-        <v>805.8586994969074</v>
+        <v>702.0852066356879</v>
       </c>
       <c r="H24" t="n">
         <v>1.0</v>
@@ -894,19 +901,19 @@
         <v>3.0</v>
       </c>
       <c r="C25" t="n">
-        <v>5.9272176871E10</v>
+        <v>6.792028592E10</v>
       </c>
       <c r="D25" t="n">
-        <v>1.7593801336E10</v>
+        <v>1.791078769E10</v>
       </c>
       <c r="E25" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="F25" t="n">
-        <v>1.541167988346903</v>
+        <v>3.6682877223153056</v>
       </c>
       <c r="G25" t="n">
-        <v>211.72591739890248</v>
+        <v>434.9548108710895</v>
       </c>
       <c r="H25" t="n">
         <v>1.0</v>
@@ -917,19 +924,19 @@
         <v>3.0</v>
       </c>
       <c r="C26" t="n">
-        <v>8.3381626084E10</v>
+        <v>7.2360754118E10</v>
       </c>
       <c r="D26" t="n">
-        <v>5.9272176871E10</v>
+        <v>6.792028592E10</v>
       </c>
       <c r="E26" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="F26" t="n">
-        <v>2.9273163886418403</v>
+        <v>4.479564935234301</v>
       </c>
       <c r="G26" t="n">
-        <v>542.415604906807</v>
+        <v>257.2132560685849</v>
       </c>
       <c r="H26" t="n">
         <v>1.0</v>
@@ -940,19 +947,19 @@
         <v>3.0</v>
       </c>
       <c r="C27" t="n">
-        <v>3.1310500218E10</v>
+        <v>7.973162759E9</v>
       </c>
       <c r="D27" t="n">
-        <v>8.3381626084E10</v>
+        <v>7.2360754118E10</v>
       </c>
       <c r="E27" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="F27" t="n">
-        <v>3.124552553837044</v>
+        <v>5.352212605777627</v>
       </c>
       <c r="G27" t="n">
-        <v>634.3706705805198</v>
+        <v>217.38736118625474</v>
       </c>
       <c r="H27" t="n">
         <v>1.0</v>
@@ -963,22 +970,22 @@
         <v>3.0</v>
       </c>
       <c r="C28" t="n">
-        <v>4.9876099276E10</v>
+        <v>5.1121484728E10</v>
       </c>
       <c r="D28" t="n">
-        <v>3.1310500218E10</v>
+        <v>7.973162759E9</v>
       </c>
       <c r="E28" t="n">
-        <v>5.0</v>
+        <v>7.0</v>
       </c>
       <c r="F28" t="n">
-        <v>4.607477632766094</v>
+        <v>7.452825234249042</v>
       </c>
       <c r="G28" t="n">
-        <v>341.86500695178023</v>
+        <v>1526.649145176441</v>
       </c>
       <c r="H28" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="29">
@@ -986,19 +993,19 @@
         <v>3.0</v>
       </c>
       <c r="C29" t="n">
-        <v>5.5938368836E10</v>
+        <v>3.129787598E10</v>
       </c>
       <c r="D29" t="n">
-        <v>4.9876099276E10</v>
+        <v>5.1121484728E10</v>
       </c>
       <c r="E29" t="n">
-        <v>6.0</v>
+        <v>8.0</v>
       </c>
       <c r="F29" t="n">
-        <v>5.521846832873693</v>
+        <v>8.15266229726272</v>
       </c>
       <c r="G29" t="n">
-        <v>775.989596411402</v>
+        <v>438.9642363314328</v>
       </c>
       <c r="H29" t="n">
         <v>1.0</v>
@@ -1006,45 +1013,45 @@
     </row>
     <row r="30">
       <c r="B30" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="C30" t="n">
-        <v>1.0653766553E10</v>
+        <v>0.0</v>
       </c>
       <c r="D30" t="n">
-        <v>5.5938368836E10</v>
+        <v>-1.0</v>
       </c>
       <c r="E30" t="n">
-        <v>7.0</v>
+        <v>0.0</v>
       </c>
       <c r="F30" t="n">
-        <v>6.579327048826158</v>
+        <v>0.0</v>
       </c>
       <c r="G30" t="n">
-        <v>937.4620073430053</v>
+        <v>100000.0</v>
       </c>
       <c r="H30" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="31">
       <c r="B31" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="C31" t="n">
-        <v>4.7084839903E10</v>
+        <v>7.2528418098E10</v>
       </c>
       <c r="D31" t="n">
-        <v>1.0653766553E10</v>
+        <v>0.0</v>
       </c>
       <c r="E31" t="n">
-        <v>8.0</v>
+        <v>1.0</v>
       </c>
       <c r="F31" t="n">
-        <v>7.6715237392187525</v>
+        <v>0.8447988478360704</v>
       </c>
       <c r="G31" t="n">
-        <v>883.7883245371893</v>
+        <v>989.7896363580809</v>
       </c>
       <c r="H31" t="n">
         <v>1.0</v>
@@ -1052,22 +1059,22 @@
     </row>
     <row r="32">
       <c r="B32" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="C32" t="n">
-        <v>4.2443855545E10</v>
+        <v>7.6883219571E10</v>
       </c>
       <c r="D32" t="n">
-        <v>4.7084839903E10</v>
+        <v>7.2528418098E10</v>
       </c>
       <c r="E32" t="n">
-        <v>9.0</v>
+        <v>2.0</v>
       </c>
       <c r="F32" t="n">
-        <v>8.911845577200292</v>
+        <v>1.918923429123811</v>
       </c>
       <c r="G32" t="n">
-        <v>609.9253407689052</v>
+        <v>499.2421419245529</v>
       </c>
       <c r="H32" t="n">
         <v>1.0</v>
@@ -1078,22 +1085,22 @@
         <v>4.0</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0</v>
+        <v>1.791078769E10</v>
       </c>
       <c r="D33" t="n">
-        <v>-1.0</v>
+        <v>7.6883219571E10</v>
       </c>
       <c r="E33" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="F33" t="n">
-        <v>0.0</v>
+        <v>2.956888862622211</v>
       </c>
       <c r="G33" t="n">
-        <v>10000.0</v>
+        <v>702.0852066356879</v>
       </c>
       <c r="H33" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="34">
@@ -1101,19 +1108,19 @@
         <v>4.0</v>
       </c>
       <c r="C34" t="n">
-        <v>1.7593801336E10</v>
+        <v>6.792028592E10</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0</v>
+        <v>1.791078769E10</v>
       </c>
       <c r="E34" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="F34" t="n">
-        <v>0.6100121914074076</v>
+        <v>3.6682877223153056</v>
       </c>
       <c r="G34" t="n">
-        <v>805.8586994969074</v>
+        <v>434.9548108710895</v>
       </c>
       <c r="H34" t="n">
         <v>1.0</v>
@@ -1124,19 +1131,19 @@
         <v>4.0</v>
       </c>
       <c r="C35" t="n">
-        <v>5.9272176871E10</v>
+        <v>7.2360754118E10</v>
       </c>
       <c r="D35" t="n">
-        <v>1.7593801336E10</v>
+        <v>6.792028592E10</v>
       </c>
       <c r="E35" t="n">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
       <c r="F35" t="n">
-        <v>1.541167988346903</v>
+        <v>4.479564935234301</v>
       </c>
       <c r="G35" t="n">
-        <v>211.72591739890248</v>
+        <v>257.2132560685849</v>
       </c>
       <c r="H35" t="n">
         <v>1.0</v>
@@ -1147,19 +1154,19 @@
         <v>4.0</v>
       </c>
       <c r="C36" t="n">
-        <v>8.3381626084E10</v>
+        <v>7.973162759E9</v>
       </c>
       <c r="D36" t="n">
-        <v>5.9272176871E10</v>
+        <v>7.2360754118E10</v>
       </c>
       <c r="E36" t="n">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
       <c r="F36" t="n">
-        <v>2.9273163886418403</v>
+        <v>5.352212605777627</v>
       </c>
       <c r="G36" t="n">
-        <v>542.415604906807</v>
+        <v>217.38736118625474</v>
       </c>
       <c r="H36" t="n">
         <v>1.0</v>
@@ -1170,22 +1177,22 @@
         <v>4.0</v>
       </c>
       <c r="C37" t="n">
-        <v>3.1310500218E10</v>
+        <v>5.1121484728E10</v>
       </c>
       <c r="D37" t="n">
-        <v>8.3381626084E10</v>
+        <v>7.973162759E9</v>
       </c>
       <c r="E37" t="n">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
       <c r="F37" t="n">
-        <v>3.124552553837044</v>
+        <v>7.452825234249042</v>
       </c>
       <c r="G37" t="n">
-        <v>634.3706705805198</v>
+        <v>1526.649145176441</v>
       </c>
       <c r="H37" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="38">
@@ -1193,113 +1200,21 @@
         <v>4.0</v>
       </c>
       <c r="C38" t="n">
-        <v>4.9876099276E10</v>
+        <v>3.129787598E10</v>
       </c>
       <c r="D38" t="n">
-        <v>3.1310500218E10</v>
+        <v>5.1121484728E10</v>
       </c>
       <c r="E38" t="n">
-        <v>5.0</v>
+        <v>8.0</v>
       </c>
       <c r="F38" t="n">
-        <v>4.607477632766094</v>
+        <v>8.15266229726272</v>
       </c>
       <c r="G38" t="n">
-        <v>341.86500695178023</v>
+        <v>438.9642363314328</v>
       </c>
       <c r="H38" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="B39" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="C39" t="n">
-        <v>5.5938368836E10</v>
-      </c>
-      <c r="D39" t="n">
-        <v>4.9876099276E10</v>
-      </c>
-      <c r="E39" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="F39" t="n">
-        <v>5.521846832873693</v>
-      </c>
-      <c r="G39" t="n">
-        <v>775.989596411402</v>
-      </c>
-      <c r="H39" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="B40" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="C40" t="n">
-        <v>1.0653766553E10</v>
-      </c>
-      <c r="D40" t="n">
-        <v>5.5938368836E10</v>
-      </c>
-      <c r="E40" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="F40" t="n">
-        <v>6.579327048826158</v>
-      </c>
-      <c r="G40" t="n">
-        <v>937.4620073430053</v>
-      </c>
-      <c r="H40" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="B41" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="C41" t="n">
-        <v>4.7084839903E10</v>
-      </c>
-      <c r="D41" t="n">
-        <v>1.0653766553E10</v>
-      </c>
-      <c r="E41" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="F41" t="n">
-        <v>7.6715237392187525</v>
-      </c>
-      <c r="G41" t="n">
-        <v>883.7883245371893</v>
-      </c>
-      <c r="H41" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="B42" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="C42" t="n">
-        <v>4.2443855545E10</v>
-      </c>
-      <c r="D42" t="n">
-        <v>4.7084839903E10</v>
-      </c>
-      <c r="E42" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="F42" t="n">
-        <v>8.911845577200292</v>
-      </c>
-      <c r="G42" t="n">
-        <v>609.9253407689052</v>
-      </c>
-      <c r="H42" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -1326,202 +1241,202 @@
   <sheetData>
     <row r="2">
       <c r="B2" t="s" s="4">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s" s="4">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s" s="4">
+        <v>26</v>
+      </c>
+      <c r="E2" t="s" s="4">
+        <v>27</v>
+      </c>
+      <c r="F2" t="s" s="4">
+        <v>28</v>
+      </c>
+      <c r="G2" t="s" s="4">
         <v>19</v>
-      </c>
-      <c r="E2" t="s" s="4">
-        <v>20</v>
-      </c>
-      <c r="F2" t="s" s="4">
-        <v>21</v>
-      </c>
-      <c r="G2" t="s" s="4">
-        <v>12</v>
       </c>
     </row>
     <row r="3">
       <c r="B3" t="n">
-        <v>1.031106418E9</v>
+        <v>4.45342525E8</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5178315749396072</v>
+        <v>0.8011663311654236</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6100121914074076</v>
+        <v>0.8447988478360704</v>
       </c>
       <c r="E3" t="n">
-        <v>805.8586994969074</v>
+        <v>989.7896363580809</v>
       </c>
       <c r="F3" t="n">
-        <v>98.0</v>
+        <v>19.0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.7593801336E10</v>
+        <v>7.2528418098E10</v>
       </c>
     </row>
     <row r="4">
       <c r="B4" t="n">
-        <v>4.29117204E9</v>
+        <v>3.3575053E9</v>
       </c>
       <c r="C4" t="n">
-        <v>1.4912120653331793</v>
+        <v>1.6819643312414558</v>
       </c>
       <c r="D4" t="n">
-        <v>1.541167988346903</v>
+        <v>1.918923429123811</v>
       </c>
       <c r="E4" t="n">
-        <v>211.72591739890248</v>
+        <v>499.2421419245529</v>
       </c>
       <c r="F4" t="n">
-        <v>18.0</v>
+        <v>5.0</v>
       </c>
       <c r="G4" t="n">
-        <v>5.9272176871E10</v>
+        <v>7.6883219571E10</v>
       </c>
     </row>
     <row r="5">
       <c r="B5" t="n">
-        <v>9.590578919E9</v>
+        <v>6.888226743E9</v>
       </c>
       <c r="C5" t="n">
-        <v>2.9219237306079417</v>
+        <v>2.727334888487757</v>
       </c>
       <c r="D5" t="n">
-        <v>2.9273163886418403</v>
+        <v>2.956888862622211</v>
       </c>
       <c r="E5" t="n">
-        <v>542.415604906807</v>
+        <v>702.0852066356879</v>
       </c>
       <c r="F5" t="n">
-        <v>33.0</v>
+        <v>75.0</v>
       </c>
       <c r="G5" t="n">
-        <v>8.3381626084E10</v>
+        <v>1.791078769E10</v>
       </c>
     </row>
     <row r="6">
       <c r="B6" t="n">
-        <v>8.73347933E8</v>
+        <v>8.043376824E9</v>
       </c>
       <c r="C6" t="n">
-        <v>3.0726625717254197</v>
+        <v>3.6442913076432952</v>
       </c>
       <c r="D6" t="n">
-        <v>3.124552553837044</v>
+        <v>3.6682877223153056</v>
       </c>
       <c r="E6" t="n">
-        <v>634.3706705805198</v>
+        <v>434.9548108710895</v>
       </c>
       <c r="F6" t="n">
-        <v>55.0</v>
+        <v>75.0</v>
       </c>
       <c r="G6" t="n">
-        <v>3.1310500218E10</v>
+        <v>6.792028592E10</v>
       </c>
     </row>
     <row r="7">
       <c r="B7" t="n">
-        <v>7.70410637E8</v>
+        <v>6.106761921E9</v>
       </c>
       <c r="C7" t="n">
-        <v>4.4179956732309895</v>
+        <v>4.265409849180777</v>
       </c>
       <c r="D7" t="n">
-        <v>4.607477632766094</v>
+        <v>4.479564935234301</v>
       </c>
       <c r="E7" t="n">
-        <v>341.86500695178023</v>
+        <v>257.2132560685849</v>
       </c>
       <c r="F7" t="n">
-        <v>89.0</v>
+        <v>56.0</v>
       </c>
       <c r="G7" t="n">
-        <v>4.9876099276E10</v>
+        <v>7.2360754118E10</v>
       </c>
     </row>
     <row r="8">
       <c r="B8" t="n">
-        <v>7.914100728E9</v>
+        <v>5.698225262E9</v>
       </c>
       <c r="C8" t="n">
-        <v>5.471768987012645</v>
+        <v>5.149041946903873</v>
       </c>
       <c r="D8" t="n">
-        <v>5.521846832873693</v>
+        <v>5.352212605777627</v>
       </c>
       <c r="E8" t="n">
-        <v>775.989596411402</v>
+        <v>217.38736118625474</v>
       </c>
       <c r="F8" t="n">
-        <v>16.0</v>
+        <v>69.0</v>
       </c>
       <c r="G8" t="n">
-        <v>5.5938368836E10</v>
+        <v>7.973162759E9</v>
       </c>
     </row>
     <row r="9">
       <c r="B9" t="n">
-        <v>4.800614753E9</v>
+        <v>2.8551701E9</v>
       </c>
       <c r="C9" t="n">
-        <v>6.5731848976792975</v>
+        <v>7.2470631434041035</v>
       </c>
       <c r="D9" t="n">
-        <v>6.579327048826158</v>
+        <v>7.452825234249042</v>
       </c>
       <c r="E9" t="n">
-        <v>937.4620073430053</v>
+        <v>776.5750453986526</v>
       </c>
       <c r="F9" t="n">
-        <v>98.0</v>
+        <v>55.0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.0653766553E10</v>
+        <v>5.1121484728E10</v>
       </c>
     </row>
     <row r="10">
       <c r="B10" t="n">
-        <v>2.924928768E9</v>
+        <v>3.593971371E9</v>
       </c>
       <c r="C10" t="n">
-        <v>7.597545833806683</v>
+        <v>6.951736705682739</v>
       </c>
       <c r="D10" t="n">
-        <v>7.6715237392187525</v>
+        <v>7.452825234249042</v>
       </c>
       <c r="E10" t="n">
-        <v>883.7883245371893</v>
+        <v>750.0740997777882</v>
       </c>
       <c r="F10" t="n">
-        <v>38.0</v>
+        <v>24.0</v>
       </c>
       <c r="G10" t="n">
-        <v>4.7084839903E10</v>
+        <v>5.1121484728E10</v>
       </c>
     </row>
     <row r="11">
       <c r="B11" t="n">
-        <v>5.90637048E9</v>
+        <v>3.065833628E9</v>
       </c>
       <c r="C11" t="n">
-        <v>8.882122521503204</v>
+        <v>8.13277930281591</v>
       </c>
       <c r="D11" t="n">
-        <v>8.911845577200292</v>
+        <v>8.15266229726272</v>
       </c>
       <c r="E11" t="n">
-        <v>609.9253407689052</v>
+        <v>438.9642363314328</v>
       </c>
       <c r="F11" t="n">
-        <v>88.0</v>
+        <v>85.0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.2443855545E10</v>
+        <v>3.129787598E10</v>
       </c>
     </row>
   </sheetData>
@@ -1537,7 +1452,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="2" max="2" width="12.6328125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="14.96484375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="14.5234375" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="18.23828125" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="20.11328125" customWidth="true" bestFit="true"/>
@@ -1545,142 +1460,142 @@
   <sheetData>
     <row r="2">
       <c r="B2" t="s" s="5">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s" s="5">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s" s="5">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="E2" t="s" s="5">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3">
       <c r="B3" t="n">
-        <v>1.031106418E9</v>
+        <v>4.45342525E8</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5178315749396072</v>
+        <v>0.8011663311654236</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6100121914074076</v>
+        <v>0.8447988478360704</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0921806164678004</v>
+        <v>0.043632516670646826</v>
       </c>
     </row>
     <row r="4">
       <c r="B4" t="n">
-        <v>4.29117204E9</v>
+        <v>3.3575053E9</v>
       </c>
       <c r="C4" t="n">
-        <v>1.4912120653331793</v>
+        <v>1.6819643312414558</v>
       </c>
       <c r="D4" t="n">
-        <v>1.541167988346903</v>
+        <v>1.918923429123811</v>
       </c>
       <c r="E4" t="n">
-        <v>0.049955923013723647</v>
+        <v>0.23695909788235525</v>
       </c>
     </row>
     <row r="5">
       <c r="B5" t="n">
-        <v>9.590578919E9</v>
+        <v>6.888226743E9</v>
       </c>
       <c r="C5" t="n">
-        <v>2.9219237306079417</v>
+        <v>2.727334888487757</v>
       </c>
       <c r="D5" t="n">
-        <v>2.9273163886418403</v>
+        <v>2.956888862622211</v>
       </c>
       <c r="E5" t="n">
-        <v>0.005392658033898545</v>
+        <v>0.2295539741344541</v>
       </c>
     </row>
     <row r="6">
       <c r="B6" t="n">
-        <v>8.73347933E8</v>
+        <v>8.043376824E9</v>
       </c>
       <c r="C6" t="n">
-        <v>3.0726625717254197</v>
+        <v>3.6442913076432952</v>
       </c>
       <c r="D6" t="n">
-        <v>3.124552553837044</v>
+        <v>3.6682877223153056</v>
       </c>
       <c r="E6" t="n">
-        <v>0.051889982111624544</v>
+        <v>0.023996414672010413</v>
       </c>
     </row>
     <row r="7">
       <c r="B7" t="n">
-        <v>7.70410637E8</v>
+        <v>6.106761921E9</v>
       </c>
       <c r="C7" t="n">
-        <v>4.4179956732309895</v>
+        <v>4.265409849180777</v>
       </c>
       <c r="D7" t="n">
-        <v>4.607477632766094</v>
+        <v>4.479564935234301</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1894819595351045</v>
+        <v>0.21415508605352418</v>
       </c>
     </row>
     <row r="8">
       <c r="B8" t="n">
-        <v>7.914100728E9</v>
+        <v>5.698225262E9</v>
       </c>
       <c r="C8" t="n">
-        <v>5.471768987012645</v>
+        <v>5.149041946903873</v>
       </c>
       <c r="D8" t="n">
-        <v>5.521846832873693</v>
+        <v>5.352212605777627</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0500778458610478</v>
+        <v>0.20317065887375385</v>
       </c>
     </row>
     <row r="9">
       <c r="B9" t="n">
-        <v>4.800614753E9</v>
+        <v>2.8551701E9</v>
       </c>
       <c r="C9" t="n">
-        <v>6.5731848976792975</v>
+        <v>7.2470631434041035</v>
       </c>
       <c r="D9" t="n">
-        <v>6.579327048826158</v>
+        <v>7.452825234249042</v>
       </c>
       <c r="E9" t="n">
-        <v>0.006142151146860897</v>
+        <v>0.20576209084493868</v>
       </c>
     </row>
     <row r="10">
       <c r="B10" t="n">
-        <v>2.924928768E9</v>
+        <v>3.593971371E9</v>
       </c>
       <c r="C10" t="n">
-        <v>7.597545833806683</v>
+        <v>6.951736705682739</v>
       </c>
       <c r="D10" t="n">
-        <v>7.6715237392187525</v>
+        <v>7.452825234249042</v>
       </c>
       <c r="E10" t="n">
-        <v>0.07397790541206994</v>
+        <v>0.5010885285663029</v>
       </c>
     </row>
     <row r="11">
       <c r="B11" t="n">
-        <v>5.90637048E9</v>
+        <v>3.065833628E9</v>
       </c>
       <c r="C11" t="n">
-        <v>8.882122521503204</v>
+        <v>8.13277930281591</v>
       </c>
       <c r="D11" t="n">
-        <v>8.911845577200292</v>
+        <v>8.15266229726272</v>
       </c>
       <c r="E11" t="n">
-        <v>0.02972305569708844</v>
+        <v>0.019882994446810187</v>
       </c>
     </row>
   </sheetData>
